--- a/hisob/Virtual_HI_Tech_Group_aprel_2022_Bozorov Nozimjon.xlsx
+++ b/hisob/Virtual_HI_Tech_Group_aprel_2022_Bozorov Nozimjon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>№</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ITC 04-2022/129</t>
   </si>
   <si>
+    <t xml:space="preserve">asia alliance bank </t>
+  </si>
+  <si>
     <t>Sherzodjonov Abdulaziz</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>27-04-2022</t>
+  </si>
+  <si>
+    <t>click</t>
   </si>
   <si>
     <t>Rashidov Rahmatillo</t>
@@ -132,11 +138,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="#,000_);[Red]\(#,000\)"/>
   </numFmts>
   <fonts count="30">
@@ -215,6 +221,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -222,16 +252,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,24 +284,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,15 +299,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,54 +316,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,181 +367,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,11 +613,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +654,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,23 +685,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,181 +710,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,9 +911,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1250,21 +1253,22 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="37.5925925925926" customWidth="1"/>
-    <col min="3" max="3" width="19.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="27.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="17.0925925925926" customWidth="1"/>
     <col min="4" max="4" width="12.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="19.6111111111111" customWidth="1"/>
-    <col min="6" max="6" width="19.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="14.1666666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="15.9444444444444" customWidth="1"/>
+    <col min="7" max="7" width="13.6203703703704" customWidth="1"/>
     <col min="8" max="8" width="12.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="16.6666666666667" customWidth="1"/>
-    <col min="10" max="11" width="23.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="12.9444444444444" customWidth="1"/>
+    <col min="10" max="10" width="16.8055555555556" customWidth="1"/>
+    <col min="11" max="11" width="16.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:11">
@@ -1300,7 +1304,7 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="23"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1352,14 +1356,13 @@
         <v>14</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4"/>
-      <c r="I4" s="24">
+      <c r="I4" s="23">
         <v>350000</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1384,9 +1387,9 @@
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1411,9 +1414,13 @@
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25" t="s">
+      <c r="I6" s="23">
+        <v>350000</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1422,10 +1429,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>12</v>
@@ -1438,9 +1445,13 @@
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25" t="s">
+      <c r="I7" s="23">
+        <v>350000</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1449,10 +1460,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>12</v>
@@ -1467,13 +1478,15 @@
         <v>1849113430</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="24">
+        <v>26</v>
+      </c>
+      <c r="I8" s="23">
         <v>350000</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25" t="s">
+      <c r="J8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1482,10 +1495,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>12</v>
@@ -1498,9 +1511,13 @@
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25" t="s">
+      <c r="I9" s="23">
+        <v>350000</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1509,10 +1526,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>12</v>
@@ -1525,19 +1542,25 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
+      <c r="I10" s="23">
+        <v>350000</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:12">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>12</v>
@@ -1550,13 +1573,17 @@
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25" t="s">
+      <c r="I11" s="23">
+        <v>200000</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:12">
@@ -1564,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
@@ -1576,20 +1603,20 @@
       <c r="F12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24" t="s">
         <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="2:9">
-      <c r="B13" s="21" t="s">
-        <v>35</v>
+      <c r="B13" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1597,15 +1624,15 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="26">
+      <c r="I13" s="25">
         <f>SUM(I4:I12)</f>
-        <v>700000</v>
+        <v>2300000</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1"/>
     <row r="16" ht="17" customHeight="1" spans="6:6">
-      <c r="F16" s="22" t="s">
-        <v>36</v>
+      <c r="F16" s="21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1"/>
